--- a/biology/Médecine/Échelle_Parinaud/Échelle_Parinaud.xlsx
+++ b/biology/Médecine/Échelle_Parinaud/Échelle_Parinaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_Parinaud</t>
+          <t>Échelle_Parinaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle Parinaud est une échelle en ophtalmologie qui mesure l'acuité visuelle de près c'est-à-dire la capacité de lecture. Elle utilise des paragraphes dans des tailles décroissantes de caractères. La distance de lecture est 33 cm et le résultat est exprimé par P plus un chiffre, de P28 à P1,5. La vision normale se situe à P2[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle Parinaud est une échelle en ophtalmologie qui mesure l'acuité visuelle de près c'est-à-dire la capacité de lecture. Elle utilise des paragraphes dans des tailles décroissantes de caractères. La distance de lecture est 33 cm et le résultat est exprimé par P plus un chiffre, de P28 à P1,5. La vision normale se situe à P2.
 Elle a été créée par l’ophtalmologiste Henri Parinaud dans les années 1880-1890.
-L'équivalent de l'échelle Parinaud aux États-Unis est l'échelle Jaeger[2].
+L'équivalent de l'échelle Parinaud aux États-Unis est l'échelle Jaeger.
 </t>
         </is>
       </c>
